--- a/media/IDFC_TW/Billing/BKT0.xlsx
+++ b/media/IDFC_TW/Billing/BKT0.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohaksehgal/Documents/Work/Billing/IDFC TW/PAYOUT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8621A98-D4BA-FB4A-85C9-6C49996B8D06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D04DCBA-77F2-3F4B-9464-1704C0BF776B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9720" yWindow="1060" windowWidth="20740" windowHeight="11760" xr2:uid="{654AB6C2-658C-4F3B-B556-125FB22BD07D}"/>
+    <workbookView xWindow="18040" yWindow="740" windowWidth="12200" windowHeight="18900" xr2:uid="{654AB6C2-658C-4F3B-B556-125FB22BD07D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -136,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -146,9 +146,6 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -467,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93027039-0BD5-40E9-9B09-CF65D3147275}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -485,93 +482,99 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>69.989999999999995</v>
-      </c>
-      <c r="B2" s="5">
+        <v>74.989999999999995</v>
+      </c>
+      <c r="B2" s="4">
         <v>5.4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>72.989999999999995</v>
-      </c>
-      <c r="B3" s="5">
-        <v>7.2</v>
+        <v>78.989999999999995</v>
+      </c>
+      <c r="B3" s="4">
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>75.989999999999995</v>
-      </c>
-      <c r="B4" s="5">
-        <v>9</v>
+        <v>80.989999999999995</v>
+      </c>
+      <c r="B4" s="4">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>79.989999999999995</v>
-      </c>
-      <c r="B5" s="5">
-        <v>10.8</v>
+        <v>82.99</v>
+      </c>
+      <c r="B5" s="4">
+        <v>11.2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>82.99</v>
-      </c>
-      <c r="B6" s="5">
-        <v>12.6</v>
+        <v>84.99</v>
+      </c>
+      <c r="B6" s="4">
+        <v>11.8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>84.99</v>
-      </c>
-      <c r="B7" s="5">
-        <v>14.4</v>
+        <v>86.99</v>
+      </c>
+      <c r="B7" s="4">
+        <v>13.2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>86.99</v>
-      </c>
-      <c r="B8" s="5">
-        <v>16.2</v>
+        <v>88.99</v>
+      </c>
+      <c r="B8" s="4">
+        <v>14.5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>89.99</v>
       </c>
-      <c r="B9" s="5">
-        <v>19.8</v>
+      <c r="B9" s="4">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>90</v>
-      </c>
-      <c r="B10" s="5">
-        <v>22.5</v>
+        <v>90.99</v>
+      </c>
+      <c r="B10" s="4">
+        <v>17.5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11" s="4"/>
+      <c r="A11" s="2">
+        <v>91.99</v>
+      </c>
+      <c r="B11" s="4">
+        <v>18.7</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B12" s="4"/>
+      <c r="A12" s="2">
+        <v>93.99</v>
+      </c>
+      <c r="B12" s="4">
+        <v>19.3</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B16" s="4"/>
+      <c r="A13" s="2">
+        <v>94</v>
+      </c>
+      <c r="B13" s="4">
+        <v>21.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
